--- a/biology/Zoologie/Carabus/Carabus.xlsx
+++ b/biology/Zoologie/Carabus/Carabus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carabus (les Carabes) est un genre d'insectes de la famille des Carabidae, de la sous-famille des Carabinae. Il est formé de très nombreuses espèces de coléoptères prédateurs.
 </t>
@@ -511,111 +523,417 @@
           <t>Sous-genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Acathaicus - Acoptolabrus - Acoptopterus - Acrocarabus - Alipaster - Apoplesius - Apotomopterus - Archicarabus - Archiplectes - Aristocarabus - Aulonocarabus - Axinocarabus - Calocarabus - Carabulus - Carabus - Cathaicus - Cathoplius - Cavazzutiocarabus - Cechenochilus - Cechenotribax - Cephalornis - Chaetocarabus - Chrysocarabus - Chrysotribax - Coptolabrodes - Coptolabrus - Cratocarabus - Cratocechenodes - Cratocechenus - Cratocephalus - Cratophyrtus - Cryptocarabus - Cryptocechenus - Ctenocarabus - Cupreocarabus - Cychrostomus - Cyclocarabus - Cytilocarabus - Damaster - Deroplectes - Diocarabus - Eccoptolabrus - Eocechenus - Eotribax - Eucarabus - Euleptocarabus - Eupachys - Eurycarabus - Fulgenticarabus - Gnathocarabus - Goniocarabus - Hemicarabus - Heterocarabus - Homoeocarabus - Hygrocarabus - Hypsocarabus - Imaibiodes - Imaibius - Iniopachus - Ischnocarabus - Isiocarabus - Lamprostus - Lasiocoptolabrus - Leptocarabus - Leptoplesius - Lichnocarabus - Limnocarabus - Lipaster - Macrothorax - Meganebrius - Megodontoides - Megodontus - Mesocarabus - Microplectes - Microtribax - Mimocarabus - Morphocarabus - Neocarabus - Neoplectes - Neoplesius - Nesaeocarabus - Ohomopterus - Ophiocarabus - Oreocarabus - Orinocarabus - Oxycarabus - Pachycarabus - Pachystus - Pagocarabus - Pantophyrtus - Parhomopterus - Piocarabus - Piocarabus - Platycarabus - Procechenochilus - Procerus - Procrustes - Pseudocoptolabrus - Pseudocranion - Pseudotribax - Qinlingocarabus - Relictocarabus - Rhigocarabus - Rhipocarabus - Scambocarabus - Semnocarabus - Shenocoptolabrus - Shunichiocarabus - Sphodristocarabus - Stephanocarabus - Tachypus - Tanaocarabus - Teratocarabus - Tmesicarabus - Tomocarabus - Trachycarabus - Tribax - Ulocarabus
-Sous-genres et espèces présents en Europe (à compléter)
-Archicarabus
-Carabus (Archicarabus) alysidotus Illiger 1798
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Acathaicus - Acoptolabrus - Acoptopterus - Acrocarabus - Alipaster - Apoplesius - Apotomopterus - Archicarabus - Archiplectes - Aristocarabus - Aulonocarabus - Axinocarabus - Calocarabus - Carabulus - Carabus - Cathaicus - Cathoplius - Cavazzutiocarabus - Cechenochilus - Cechenotribax - Cephalornis - Chaetocarabus - Chrysocarabus - Chrysotribax - Coptolabrodes - Coptolabrus - Cratocarabus - Cratocechenodes - Cratocechenus - Cratocephalus - Cratophyrtus - Cryptocarabus - Cryptocechenus - Ctenocarabus - Cupreocarabus - Cychrostomus - Cyclocarabus - Cytilocarabus - Damaster - Deroplectes - Diocarabus - Eccoptolabrus - Eocechenus - Eotribax - Eucarabus - Euleptocarabus - Eupachys - Eurycarabus - Fulgenticarabus - Gnathocarabus - Goniocarabus - Hemicarabus - Heterocarabus - Homoeocarabus - Hygrocarabus - Hypsocarabus - Imaibiodes - Imaibius - Iniopachus - Ischnocarabus - Isiocarabus - Lamprostus - Lasiocoptolabrus - Leptocarabus - Leptoplesius - Lichnocarabus - Limnocarabus - Lipaster - Macrothorax - Meganebrius - Megodontoides - Megodontus - Mesocarabus - Microplectes - Microtribax - Mimocarabus - Morphocarabus - Neocarabus - Neoplectes - Neoplesius - Nesaeocarabus - Ohomopterus - Ophiocarabus - Oreocarabus - Orinocarabus - Oxycarabus - Pachycarabus - Pachystus - Pagocarabus - Pantophyrtus - Parhomopterus - Piocarabus - Piocarabus - Platycarabus - Procechenochilus - Procerus - Procrustes - Pseudocoptolabrus - Pseudocranion - Pseudotribax - Qinlingocarabus - Relictocarabus - Rhigocarabus - Rhipocarabus - Scambocarabus - Semnocarabus - Shenocoptolabrus - Shunichiocarabus - Sphodristocarabus - Stephanocarabus - Tachypus - Tanaocarabus - Teratocarabus - Tmesicarabus - Tomocarabus - Trachycarabus - Tribax - Ulocarabus
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Carabus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carabus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Sous-genres</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous-genres et espèces présents en Europe (à compléter)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Archicarabus</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Carabus (Archicarabus) alysidotus Illiger 1798
 Carabus (Archicarabus) monticola Dejean 1826
 Carabus (Archicarabus) montivagus Palliardi 1825
 Carabus (Archicarabus) nemoralis O.F. Müller 1764
 Carabus (Archicarabus) pseudomonticola Vacher de Lapouge 1908
 Carabus (Archicarabus) rossii Dejean 1826
 Carabus (Archicarabus) steuartii Deyrolle 1852
-Carabus (Archicarabus) wiedemanni Ménétriés 1836
-Carabus
-Carabus (Carabus) granulatus Linnaeus 1758
+Carabus (Archicarabus) wiedemanni Ménétriés 1836</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Carabus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carabus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Sous-genres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-genres et espèces présents en Europe (à compléter)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Carabus</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Carabus (Carabus) granulatus Linnaeus 1758
 Carabus (Carabus) menetriesi Hummel 1827
-Carabus (Carabus) variolosus Fabricius 1787
-Chaetocarabus
-Carabus (Chaetocarabus) arcadicus Gistel 1850
+Carabus (Carabus) variolosus Fabricius 1787</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Carabus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carabus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Sous-genres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sous-genres et espèces présents en Europe (à compléter)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Chaetocarabus</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Carabus (Chaetocarabus) arcadicus Gistel 1850
 Carabus (Chaetocarabus) intricatus Linnaeus 1761
 Carabus (Chaetocarabus) krueperi Reitter 1896
 Carabus (Chaetocarabus) lefebvrei Dejean 1826
-Carabus (Chaetocarabus) merlini Schaum 1861
-Chrysocarabus
-Carabus (Chrysocarabus) auronitens Fabricius 1792
+Carabus (Chaetocarabus) merlini Schaum 1861</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Carabus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carabus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Sous-genres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sous-genres et espèces présents en Europe (à compléter)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Chrysocarabus</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Carabus (Chrysocarabus) auronitens Fabricius 1792
 Carabus (Chrysocarabus) hispanus Fabricius 1787
 Carabus (Chrysocarabus) lineatus Dejean 1826
 Carabus (Chrysocarabus) olympiae Sella 1855
 Carabus (Chrysocarabus) rutilans Dejean 1826
 Carabus (Chrysocarabus) solieri Dejean 1826
-Carabus (Chrysocarabus) splendens Olivier 1790
-Morphocarabus
-Carabus (Morphocarabus) monilis Fabricius, 1792
-Tachypus
-Carabus (Tachypus) auratus Linnaeus, 1761
-Carabus (Tachypus) cancellatus Illiger, 1798
-Autres
-Carabus (Aulonocarabus) canaliculatus Adams, 1812
+Carabus (Chrysocarabus) splendens Olivier 1790</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Carabus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carabus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Sous-genres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sous-genres et espèces présents en Europe (à compléter)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Morphocarabus</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Carabus (Morphocarabus) monilis Fabricius, 1792</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Carabus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carabus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Sous-genres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Sous-genres et espèces présents en Europe (à compléter)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Tachypus</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Carabus (Tachypus) auratus Linnaeus, 1761
+Carabus (Tachypus) cancellatus Illiger, 1798</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Carabus</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carabus</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Sous-genres</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Sous-genres et espèces présents en Europe (à compléter)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Carabus (Aulonocarabus) canaliculatus Adams, 1812
 Carabus (Eucarabus) arcensis Herbst, 1784
 Carabus (Megodontus) violaceus Linnaeus, 1758
-Carabus (Procrustes) coriaceus Linnaeus, 1758
-Autres espèces
-Carabus hemprichi Dejean, 1826</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Carabus</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Carabus</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+Carabus (Procrustes) coriaceus Linnaeus, 1758</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Carabus</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carabus</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Sous-genres</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Autres espèces</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Carabus hemprichi Dejean, 1826</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Carabus</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carabus</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Noms en synonymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Carabus elegans</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Carabus</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Carabus</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Carabus</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carabus</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Livres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve">Bugareti (1992), L'élevage des Carabes, Sciences Nat, Venette.
-Deuve, Th. (1994), Une classification du genre Carabus, Sciences Nat, Venette. [1]
-Forel, J.  &amp; Leplat J. (1995), Les Carabes de France, Sciences Nat, Venette. [2]
+Deuve, Th. (1994), Une classification du genre Carabus, Sciences Nat, Venette. 
+Forel, J.  &amp; Leplat J. (1995), Les Carabes de France, Sciences Nat, Venette. 
 Lapouge, Georges Vacher de (1913-1927), Carabes nouveaux ou mal connus, Miscellanea Entomologica.
 Puisségur, C. (1964), Recherches sur la génétique des Carabes, Vie et Milieu, supplément 16, Laboratoire Arago, Banyuls-sur-Mer.
 Sur les autres projets Wikimedia :
